--- a/Экономика/COCOMA 2.xlsx
+++ b/Экономика/COCOMA 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\6_Semester\Экономика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE5AEEC-CD0D-42DC-9793-B1E1CCC38E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D26554-93AD-44E5-8E75-4973FE7D65AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="943" windowWidth="21943" windowHeight="6514" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-69" yWindow="0" windowWidth="21943" windowHeight="6514" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -448,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -606,7 +606,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <f>A14*(B2)^B10/A2</f>
+        <f>A14*(B2/1000)^B10/A2</f>
         <v>2.9132230295359105</v>
       </c>
     </row>

--- a/Экономика/COCOMA 2.xlsx
+++ b/Экономика/COCOMA 2.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\6_Semester\Экономика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D26554-93AD-44E5-8E75-4973FE7D65AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764CD16D-A937-4271-A74E-D75CF7F2A7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-69" yWindow="0" windowWidth="21943" windowHeight="6514" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Разработчиков</t>
   </si>
@@ -103,13 +104,352 @@
   </si>
   <si>
     <t>PM</t>
+  </si>
+  <si>
+    <t>PERT</t>
+  </si>
+  <si>
+    <t>Оптимистичные</t>
+  </si>
+  <si>
+    <t>Пессимистичные</t>
+  </si>
+  <si>
+    <t>Наиболее вероятные</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>СКО</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>СКОi^2</t>
+  </si>
+  <si>
+    <t>E 95% = E + 2 * СКО =</t>
+  </si>
+  <si>
+    <t>Разработка ТЗ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Е = Σ(Е</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t>Обучение</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>СКО = √(Σ(СКО</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)) = </t>
+    </r>
+  </si>
+  <si>
+    <t>Проектирование архитектуры ПО</t>
+  </si>
+  <si>
+    <t>Проектирование пользовательского интерфейса</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ 4 * M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)/6</t>
+    </r>
+  </si>
+  <si>
+    <t>Проектирование веб-страницы</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>СКО</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)/6</t>
+    </r>
+  </si>
+  <si>
+    <t>Проектирование пользовательского интерфейса мобильной версии</t>
+  </si>
+  <si>
+    <t>Проектирование базы данных</t>
+  </si>
+  <si>
+    <t>Реализация архитектуры ПО</t>
+  </si>
+  <si>
+    <t>Реализация пользовательского интерфейса</t>
+  </si>
+  <si>
+    <t>Реализация веб-страницы</t>
+  </si>
+  <si>
+    <t>Реализация пользовательского интерфейса мобильной версии</t>
+  </si>
+  <si>
+    <t>Реализация базы данных</t>
+  </si>
+  <si>
+    <t>Back-end разработка</t>
+  </si>
+  <si>
+    <t>Альфа-тест</t>
+  </si>
+  <si>
+    <t>Бета-тест</t>
+  </si>
+  <si>
+    <t>Разработка документации</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +457,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,16 +508,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{AD5F223E-45F2-4BEA-B308-27FE1B80D14F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -433,6 +832,9 @@
     <col min="2" max="2" width="20.3046875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13.61328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.61328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.61328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
@@ -592,7 +994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -601,13 +1003,964 @@
         <v>0.96196999999999988</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <f>A14*(B2/1000)^B10/A2</f>
-        <v>2.9132230295359105</v>
+        <f>A14*(B2/1000)^B10</f>
+        <v>11.652892118143642</v>
+      </c>
+      <c r="C20">
+        <f>B20*30000</f>
+        <v>349586.76354430924</v>
+      </c>
+      <c r="D20">
+        <f>C20*0.15+C20</f>
+        <v>402024.77807595563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5793BC-CA91-4B4B-A95C-E4ADC49CD7CE}">
+  <dimension ref="A1:S22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.765625" customWidth="1"/>
+    <col min="7" max="7" width="15.23046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.23046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.3046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.84375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1">
+        <f>B3+2*B4</f>
+        <v>2441.6042130525875</v>
+      </c>
+      <c r="C2">
+        <f>B2/8/24</f>
+        <v>12.716688609648893</v>
+      </c>
+      <c r="D2">
+        <f>C2*30000</f>
+        <v>381500.65828946675</v>
+      </c>
+      <c r="E2">
+        <f>D2*0.15+D2</f>
+        <v>438725.75703288679</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="6">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6">
+        <v>32</v>
+      </c>
+      <c r="I2" s="6">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5">
+        <f>(H2+4*I2+G2)/6</f>
+        <v>20</v>
+      </c>
+      <c r="K2" s="5">
+        <f>(H2-G2)/6</f>
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L17" si="0">POWER(K2,2)</f>
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <f>G2*2</f>
+        <v>16</v>
+      </c>
+      <c r="O2">
+        <f>H2*2</f>
+        <v>64</v>
+      </c>
+      <c r="P2">
+        <f>I2*2</f>
+        <v>40</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>(O2+4*P2+N2)/6</f>
+        <v>40</v>
+      </c>
+      <c r="R2" s="5">
+        <f>(O2-N2)/6</f>
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:S17" si="1">POWER(R2,2)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1">
+        <f>SUM(Q2:Q17)</f>
+        <v>2334</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="6">
+        <v>60</v>
+      </c>
+      <c r="H3" s="7">
+        <v>76</v>
+      </c>
+      <c r="I3" s="6">
+        <v>76</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J17" si="2">(H3+4*I3+G3)/6</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K17" si="3">(H3-G3)/6</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>7.1111111111111107</v>
+      </c>
+      <c r="N3">
+        <f>G3*2</f>
+        <v>120</v>
+      </c>
+      <c r="O3">
+        <f>H3*2</f>
+        <v>152</v>
+      </c>
+      <c r="P3">
+        <f>I3*2</f>
+        <v>152</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q17" si="4">(O3+4*P3+N3)/6</f>
+        <v>146.66666666666666</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" ref="R3:R17" si="5">(O3-N3)/6</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>28.444444444444443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1">
+        <f>SQRT(SUM(S2:S17))</f>
+        <v>53.802106526293805</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="6">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6">
+        <v>18</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="2"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f>G4*2</f>
+        <v>28</v>
+      </c>
+      <c r="O4">
+        <f>H4*2</f>
+        <v>40</v>
+      </c>
+      <c r="P4">
+        <f>I4*2</f>
+        <v>36</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="4"/>
+        <v>35.333333333333336</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="1"/>
+      <c r="F5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="6">
+        <v>16</v>
+      </c>
+      <c r="H5" s="6">
+        <v>24</v>
+      </c>
+      <c r="I5" s="6">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N3:N17" si="6">G5*4</f>
+        <v>64</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O2:P17" si="7">H5*4</f>
+        <v>96</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="5"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>28.444444444444443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="6">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="2"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="K6" s="5">
+        <f>(H6-G6)/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="4"/>
+        <v>77.333333333333329</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="5"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>7.1111111111111107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="6">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6">
+        <v>20</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="2"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="4"/>
+        <v>77.333333333333329</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="5"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>7.1111111111111107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="6">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6">
+        <v>8</v>
+      </c>
+      <c r="I8" s="6">
+        <v>8</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="2"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="4"/>
+        <v>29.333333333333332</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="5"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>7.1111111111111107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="6">
+        <v>44</v>
+      </c>
+      <c r="H9" s="6">
+        <v>60</v>
+      </c>
+      <c r="I9" s="6">
+        <v>52</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="3"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>7.1111111111111107</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>176</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="4"/>
+        <v>208</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="5"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>113.77777777777777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <f>2.5*POWER(C2,1/3)</f>
+        <v>5.8353201421616205</v>
+      </c>
+      <c r="C10">
+        <f>B10*30000</f>
+        <v>175059.6042648486</v>
+      </c>
+      <c r="D10">
+        <f>C10*0.15+C10</f>
+        <v>201318.54490457589</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="6">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6">
+        <v>24</v>
+      </c>
+      <c r="I10" s="6">
+        <v>20</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="5"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>28.444444444444443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="F11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="6">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6">
+        <v>20</v>
+      </c>
+      <c r="I11" s="6">
+        <v>20</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="2"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="4"/>
+        <v>77.333333333333329</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" si="5"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>7.1111111111111107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="F12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="6">
+        <v>16</v>
+      </c>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+      <c r="I12" s="6">
+        <v>20</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="4"/>
+        <v>77.333333333333329</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" si="5"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>7.1111111111111107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="F13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="6">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6">
+        <v>12</v>
+      </c>
+      <c r="I13" s="6">
+        <v>12</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="2"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="4"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" si="5"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>1.7777777777777777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="F14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="6">
+        <v>128</v>
+      </c>
+      <c r="H14" s="6">
+        <v>188</v>
+      </c>
+      <c r="I14" s="6">
+        <v>150</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="2"/>
+        <v>152.66666666666666</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>512</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>752</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="7"/>
+        <v>600</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="4"/>
+        <v>610.66666666666663</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="F15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="6">
+        <v>68</v>
+      </c>
+      <c r="H15" s="6">
+        <v>88</v>
+      </c>
+      <c r="I15" s="6">
+        <v>78</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>11.111111111111112</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>272</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>352</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="7"/>
+        <v>312</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="4"/>
+        <v>312</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="5"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>177.7777777777778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="F16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="6">
+        <v>70</v>
+      </c>
+      <c r="H16" s="6">
+        <v>112</v>
+      </c>
+      <c r="I16" s="6">
+        <v>100</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L16">
+        <f>POWER(K16,2)</f>
+        <v>49</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>280</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>448</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" si="4"/>
+        <v>388</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="17" spans="6:19" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="F17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="6">
+        <v>8</v>
+      </c>
+      <c r="H17" s="6">
+        <v>16</v>
+      </c>
+      <c r="I17" s="6">
+        <v>12</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="R17" s="5">
+        <f t="shared" si="5"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>28.444444444444443</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="G18">
+        <f>SUM(G2:G17)</f>
+        <v>510</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18" si="8">SUM(H2:H17)</f>
+        <v>740</v>
+      </c>
+      <c r="I18">
+        <f>SUM(I2:I17)</f>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="19" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="G19">
+        <f>G18/8</f>
+        <v>63.75</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19" si="9">H18/8</f>
+        <v>92.5</v>
+      </c>
+      <c r="I19">
+        <f>I18/8</f>
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="22" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="I22">
+        <f>I19/30</f>
+        <v>2.6916666666666669</v>
       </c>
     </row>
   </sheetData>

--- a/Экономика/COCOMA 2.xlsx
+++ b/Экономика/COCOMA 2.xlsx
@@ -159,7 +159,41 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">СКОi^2</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">СКО</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E 95% = E + 2 * СКО =</t>
@@ -462,7 +496,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -503,6 +537,32 @@
       <vertAlign val="subscript"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -573,7 +633,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -587,6 +647,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -630,11 +694,11 @@
       <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.31"/>
@@ -843,10 +907,10 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.84"/>
@@ -861,7 +925,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.84"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -881,11 +945,11 @@
       <c r="K1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>33</v>
       </c>
@@ -905,53 +969,53 @@
         <f aca="false">D2*0.15+D2</f>
         <v>405639.235098407</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <f aca="false">(H2+4*I2+G2)/6</f>
+        <v>40</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <f aca="false">(H2-G2)/6</f>
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>32</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <f aca="false">(H2+4*I2+G2)/6</f>
-        <v>20</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <f aca="false">(H2-G2)/6</f>
-        <v>4</v>
-      </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="7" t="n">
         <f aca="false">POWER(K2,2)</f>
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="N2" s="0" t="n">
         <f aca="false">G2*2</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="O2" s="0" t="n">
         <f aca="false">H2*2</f>
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="P2" s="0" t="n">
         <f aca="false">I2*2</f>
-        <v>40</v>
-      </c>
-      <c r="Q2" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="7" t="n">
         <f aca="false">(O2+4*P2+N2)/6</f>
-        <v>40</v>
-      </c>
-      <c r="R2" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="R2" s="7" t="n">
         <f aca="false">(O2-N2)/6</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="S2" s="0" t="n">
         <f aca="false">POWER(R2,2)</f>
-        <v>64</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -959,375 +1023,375 @@
         <v>35</v>
       </c>
       <c r="B3" s="1" t="n">
-        <f aca="false">SUM(Q2:Q17)</f>
+        <f aca="false">SUM(J2:J17)</f>
         <v>2159</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>60</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>76</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>76</v>
-      </c>
-      <c r="J3" s="6" t="n">
+      <c r="G3" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>152</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>152</v>
+      </c>
+      <c r="J3" s="7" t="n">
         <f aca="false">(H3+4*I3+G3)/6</f>
-        <v>73.3333333333333</v>
-      </c>
-      <c r="K3" s="6" t="n">
+        <v>146.666666666667</v>
+      </c>
+      <c r="K3" s="7" t="n">
         <f aca="false">(H3-G3)/6</f>
-        <v>2.66666666666667</v>
-      </c>
-      <c r="L3" s="0" t="n">
+        <v>5.33333333333333</v>
+      </c>
+      <c r="L3" s="7" t="n">
         <f aca="false">POWER(K3,2)</f>
-        <v>7.11111111111111</v>
+        <v>28.4444444444444</v>
       </c>
       <c r="N3" s="0" t="n">
         <f aca="false">G3*2</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="O3" s="0" t="n">
         <f aca="false">H3*2</f>
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="P3" s="0" t="n">
         <f aca="false">I3*2</f>
-        <v>152</v>
-      </c>
-      <c r="Q3" s="6" t="n">
+        <v>304</v>
+      </c>
+      <c r="Q3" s="7" t="n">
         <f aca="false">(O3+4*P3+N3)/6</f>
-        <v>146.666666666667</v>
-      </c>
-      <c r="R3" s="6" t="n">
+        <v>293.333333333333</v>
+      </c>
+      <c r="R3" s="7" t="n">
         <f aca="false">(O3-N3)/6</f>
-        <v>5.33333333333333</v>
+        <v>10.6666666666667</v>
       </c>
       <c r="S3" s="0" t="n">
         <f aca="false">POWER(R3,2)</f>
-        <v>28.4444444444444</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113.777777777778</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="1" t="n">
-        <f aca="false">SQRT(SUM(S2:S17))</f>
+        <f aca="false">SQRT(SUM(L2:L17))</f>
         <v>49.2352628825226</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="J4" s="6" t="n">
+      <c r="G4" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="J4" s="7" t="n">
         <f aca="false">(H4+4*I4+G4)/6</f>
-        <v>17.6666666666667</v>
-      </c>
-      <c r="K4" s="6" t="n">
+        <v>35.3333333333333</v>
+      </c>
+      <c r="K4" s="7" t="n">
         <f aca="false">(H4-G4)/6</f>
-        <v>1</v>
-      </c>
-      <c r="L4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7" t="n">
         <f aca="false">POWER(K4,2)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" s="0" t="n">
         <f aca="false">G4*2</f>
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="O4" s="0" t="n">
         <f aca="false">H4*2</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="P4" s="0" t="n">
         <f aca="false">I4*2</f>
-        <v>36</v>
-      </c>
-      <c r="Q4" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="7" t="n">
         <f aca="false">(O4+4*P4+N4)/6</f>
-        <v>35.3333333333333</v>
-      </c>
-      <c r="R4" s="6" t="n">
+        <v>70.6666666666667</v>
+      </c>
+      <c r="R4" s="7" t="n">
         <f aca="false">(O4-N4)/6</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S4" s="0" t="n">
         <f aca="false">POWER(R4,2)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" s="6" t="n">
+      <c r="G5" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="J5" s="7" t="n">
         <f aca="false">(H5+4*I5+G5)/6</f>
-        <v>20</v>
-      </c>
-      <c r="K5" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="K5" s="7" t="n">
         <f aca="false">(H5-G5)/6</f>
-        <v>1.33333333333333</v>
-      </c>
-      <c r="L5" s="0" t="n">
+        <v>5.33333333333333</v>
+      </c>
+      <c r="L5" s="7" t="n">
         <f aca="false">POWER(K5,2)</f>
-        <v>1.77777777777778</v>
+        <v>28.4444444444444</v>
       </c>
       <c r="N5" s="0" t="n">
         <f aca="false">G5*4</f>
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="O5" s="0" t="n">
         <f aca="false">H5*4</f>
-        <v>96</v>
+        <v>384</v>
       </c>
       <c r="P5" s="0" t="n">
         <f aca="false">I5*4</f>
-        <v>80</v>
-      </c>
-      <c r="Q5" s="6" t="n">
+        <v>320</v>
+      </c>
+      <c r="Q5" s="7" t="n">
         <f aca="false">(O5+4*P5+N5)/6</f>
-        <v>80</v>
-      </c>
-      <c r="R5" s="6" t="n">
+        <v>320</v>
+      </c>
+      <c r="R5" s="7" t="n">
         <f aca="false">(O5-N5)/6</f>
-        <v>5.33333333333333</v>
+        <v>21.3333333333333</v>
       </c>
       <c r="S5" s="0" t="n">
         <f aca="false">POWER(R5,2)</f>
-        <v>28.4444444444444</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>455.111111111111</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" s="6" t="n">
+      <c r="G6" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="J6" s="7" t="n">
         <f aca="false">(H6+4*I6+G6)/6</f>
-        <v>19.3333333333333</v>
-      </c>
-      <c r="K6" s="6" t="n">
+        <v>77.3333333333333</v>
+      </c>
+      <c r="K6" s="7" t="n">
         <f aca="false">(H6-G6)/6</f>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L6" s="0" t="n">
+        <v>2.66666666666667</v>
+      </c>
+      <c r="L6" s="7" t="n">
         <f aca="false">POWER(K6,2)</f>
-        <v>0.444444444444444</v>
+        <v>7.11111111111111</v>
       </c>
       <c r="N6" s="0" t="n">
         <f aca="false">G6*4</f>
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="O6" s="0" t="n">
         <f aca="false">H6*4</f>
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="P6" s="0" t="n">
         <f aca="false">I6*4</f>
-        <v>80</v>
-      </c>
-      <c r="Q6" s="6" t="n">
+        <v>320</v>
+      </c>
+      <c r="Q6" s="7" t="n">
         <f aca="false">(O6+4*P6+N6)/6</f>
-        <v>77.3333333333333</v>
-      </c>
-      <c r="R6" s="6" t="n">
+        <v>309.333333333333</v>
+      </c>
+      <c r="R6" s="7" t="n">
         <f aca="false">(O6-N6)/6</f>
-        <v>2.66666666666667</v>
+        <v>10.6666666666667</v>
       </c>
       <c r="S6" s="0" t="n">
         <f aca="false">POWER(R6,2)</f>
-        <v>7.11111111111111</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113.777777777778</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J7" s="6" t="n">
+      <c r="G7" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="J7" s="7" t="n">
         <f aca="false">(H7+4*I7+G7)/6</f>
-        <v>19.3333333333333</v>
-      </c>
-      <c r="K7" s="6" t="n">
+        <v>77.3333333333333</v>
+      </c>
+      <c r="K7" s="7" t="n">
         <f aca="false">(H7-G7)/6</f>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L7" s="0" t="n">
+        <v>2.66666666666667</v>
+      </c>
+      <c r="L7" s="7" t="n">
         <f aca="false">POWER(K7,2)</f>
-        <v>0.444444444444444</v>
+        <v>7.11111111111111</v>
       </c>
       <c r="N7" s="0" t="n">
         <f aca="false">G7*4</f>
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="O7" s="0" t="n">
         <f aca="false">H7*4</f>
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="P7" s="0" t="n">
         <f aca="false">I7*4</f>
-        <v>80</v>
-      </c>
-      <c r="Q7" s="6" t="n">
+        <v>320</v>
+      </c>
+      <c r="Q7" s="7" t="n">
         <f aca="false">(O7+4*P7+N7)/6</f>
-        <v>77.3333333333333</v>
-      </c>
-      <c r="R7" s="6" t="n">
+        <v>309.333333333333</v>
+      </c>
+      <c r="R7" s="7" t="n">
         <f aca="false">(O7-N7)/6</f>
-        <v>2.66666666666667</v>
+        <v>10.6666666666667</v>
       </c>
       <c r="S7" s="0" t="n">
         <f aca="false">POWER(R7,2)</f>
+        <v>113.777777777778</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <f aca="false">(H8+4*I8+G8)/6</f>
+        <v>29.3333333333333</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <f aca="false">(H8-G8)/6</f>
+        <v>2.66666666666667</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <f aca="false">POWER(K8,2)</f>
         <v>7.11111111111111</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <f aca="false">(H8+4*I8+G8)/6</f>
-        <v>7.33333333333333</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <f aca="false">(H8-G8)/6</f>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <f aca="false">POWER(K8,2)</f>
-        <v>0.444444444444444</v>
       </c>
       <c r="N8" s="0" t="n">
         <f aca="false">G8*4</f>
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="O8" s="0" t="n">
         <f aca="false">H8*4</f>
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="P8" s="0" t="n">
         <f aca="false">I8*4</f>
-        <v>32</v>
-      </c>
-      <c r="Q8" s="6" t="n">
+        <v>128</v>
+      </c>
+      <c r="Q8" s="7" t="n">
         <f aca="false">(O8+4*P8+N8)/6</f>
-        <v>29.3333333333333</v>
-      </c>
-      <c r="R8" s="6" t="n">
+        <v>117.333333333333</v>
+      </c>
+      <c r="R8" s="7" t="n">
         <f aca="false">(O8-N8)/6</f>
-        <v>2.66666666666667</v>
+        <v>10.6666666666667</v>
       </c>
       <c r="S8" s="0" t="n">
         <f aca="false">POWER(R8,2)</f>
-        <v>7.11111111111111</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="4" t="s">
+        <v>113.777777777778</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>44</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>60</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>52</v>
-      </c>
-      <c r="J9" s="6" t="n">
+      <c r="G9" s="6" t="n">
+        <v>132</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>180</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>156</v>
+      </c>
+      <c r="J9" s="7" t="n">
         <f aca="false">(H9+4*I9+G9)/6</f>
-        <v>52</v>
-      </c>
-      <c r="K9" s="6" t="n">
+        <v>156</v>
+      </c>
+      <c r="K9" s="7" t="n">
         <f aca="false">(H9-G9)/6</f>
-        <v>2.66666666666667</v>
-      </c>
-      <c r="L9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L9" s="7" t="n">
         <f aca="false">POWER(K9,2)</f>
-        <v>7.11111111111111</v>
+        <v>64</v>
       </c>
       <c r="N9" s="0" t="n">
         <f aca="false">G9*3</f>
-        <v>132</v>
+        <v>396</v>
       </c>
       <c r="O9" s="0" t="n">
         <f aca="false">H9*3</f>
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="P9" s="0" t="n">
         <f aca="false">I9*3</f>
-        <v>156</v>
-      </c>
-      <c r="Q9" s="6" t="n">
+        <v>468</v>
+      </c>
+      <c r="Q9" s="7" t="n">
         <f aca="false">(O9+4*P9+N9)/6</f>
-        <v>156</v>
-      </c>
-      <c r="R9" s="6" t="n">
+        <v>468</v>
+      </c>
+      <c r="R9" s="7" t="n">
         <f aca="false">(O9-N9)/6</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="S9" s="0" t="n">
         <f aca="false">POWER(R9,2)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>46</v>
       </c>
@@ -1343,437 +1407,437 @@
         <f aca="false">C10*0.15+C10</f>
         <v>196124.894851756</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J10" s="6" t="n">
+      <c r="G10" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="J10" s="7" t="n">
         <f aca="false">(H10+4*I10+G10)/6</f>
-        <v>20</v>
-      </c>
-      <c r="K10" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="K10" s="7" t="n">
         <f aca="false">(H10-G10)/6</f>
-        <v>1.33333333333333</v>
-      </c>
-      <c r="L10" s="0" t="n">
+        <v>5.33333333333333</v>
+      </c>
+      <c r="L10" s="7" t="n">
         <f aca="false">POWER(K10,2)</f>
-        <v>1.77777777777778</v>
+        <v>28.4444444444444</v>
       </c>
       <c r="N10" s="0" t="n">
         <f aca="false">G10*4</f>
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="O10" s="0" t="n">
         <f aca="false">H10*4</f>
-        <v>96</v>
+        <v>384</v>
       </c>
       <c r="P10" s="0" t="n">
         <f aca="false">I10*4</f>
-        <v>80</v>
-      </c>
-      <c r="Q10" s="6" t="n">
+        <v>320</v>
+      </c>
+      <c r="Q10" s="7" t="n">
         <f aca="false">(O10+4*P10+N10)/6</f>
-        <v>80</v>
-      </c>
-      <c r="R10" s="6" t="n">
+        <v>320</v>
+      </c>
+      <c r="R10" s="7" t="n">
         <f aca="false">(O10-N10)/6</f>
-        <v>5.33333333333333</v>
+        <v>21.3333333333333</v>
       </c>
       <c r="S10" s="0" t="n">
         <f aca="false">POWER(R10,2)</f>
-        <v>28.4444444444444</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="4" t="s">
+        <v>455.111111111111</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J11" s="6" t="n">
+      <c r="G11" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="J11" s="7" t="n">
         <f aca="false">(H11+4*I11+G11)/6</f>
-        <v>19.3333333333333</v>
-      </c>
-      <c r="K11" s="6" t="n">
+        <v>77.3333333333333</v>
+      </c>
+      <c r="K11" s="7" t="n">
         <f aca="false">(H11-G11)/6</f>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L11" s="0" t="n">
+        <v>2.66666666666667</v>
+      </c>
+      <c r="L11" s="7" t="n">
         <f aca="false">POWER(K11,2)</f>
-        <v>0.444444444444444</v>
+        <v>7.11111111111111</v>
       </c>
       <c r="N11" s="0" t="n">
         <f aca="false">G11*4</f>
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="O11" s="0" t="n">
         <f aca="false">H11*4</f>
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="P11" s="0" t="n">
         <f aca="false">I11*4</f>
-        <v>80</v>
-      </c>
-      <c r="Q11" s="6" t="n">
+        <v>320</v>
+      </c>
+      <c r="Q11" s="7" t="n">
         <f aca="false">(O11+4*P11+N11)/6</f>
-        <v>77.3333333333333</v>
-      </c>
-      <c r="R11" s="6" t="n">
+        <v>309.333333333333</v>
+      </c>
+      <c r="R11" s="7" t="n">
         <f aca="false">(O11-N11)/6</f>
-        <v>2.66666666666667</v>
+        <v>10.6666666666667</v>
       </c>
       <c r="S11" s="0" t="n">
         <f aca="false">POWER(R11,2)</f>
+        <v>113.777777777778</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <f aca="false">(H12+4*I12+G12)/6</f>
+        <v>77.3333333333333</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <f aca="false">(H12-G12)/6</f>
+        <v>2.66666666666667</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <f aca="false">POWER(K12,2)</f>
         <v>7.11111111111111</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <f aca="false">(H12+4*I12+G12)/6</f>
-        <v>19.3333333333333</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <f aca="false">(H12-G12)/6</f>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <f aca="false">POWER(K12,2)</f>
-        <v>0.444444444444444</v>
       </c>
       <c r="N12" s="0" t="n">
         <f aca="false">G12*4</f>
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="O12" s="0" t="n">
         <f aca="false">H12*4</f>
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="P12" s="0" t="n">
         <f aca="false">I12*4</f>
-        <v>80</v>
-      </c>
-      <c r="Q12" s="6" t="n">
+        <v>320</v>
+      </c>
+      <c r="Q12" s="7" t="n">
         <f aca="false">(O12+4*P12+N12)/6</f>
-        <v>77.3333333333333</v>
-      </c>
-      <c r="R12" s="6" t="n">
+        <v>309.333333333333</v>
+      </c>
+      <c r="R12" s="7" t="n">
         <f aca="false">(O12-N12)/6</f>
-        <v>2.66666666666667</v>
+        <v>10.6666666666667</v>
       </c>
       <c r="S12" s="0" t="n">
         <f aca="false">POWER(R12,2)</f>
-        <v>7.11111111111111</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="4" t="s">
+        <v>113.777777777778</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J13" s="6" t="n">
+      <c r="G13" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="J13" s="7" t="n">
         <f aca="false">(H13+4*I13+G13)/6</f>
-        <v>11.6666666666667</v>
-      </c>
-      <c r="K13" s="6" t="n">
+        <v>46.6666666666667</v>
+      </c>
+      <c r="K13" s="7" t="n">
         <f aca="false">(H13-G13)/6</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L13" s="0" t="n">
+        <v>1.33333333333333</v>
+      </c>
+      <c r="L13" s="7" t="n">
         <f aca="false">POWER(K13,2)</f>
-        <v>0.111111111111111</v>
+        <v>1.77777777777778</v>
       </c>
       <c r="N13" s="0" t="n">
         <f aca="false">G13*4</f>
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="O13" s="0" t="n">
         <f aca="false">H13*4</f>
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="P13" s="0" t="n">
         <f aca="false">I13*4</f>
-        <v>48</v>
-      </c>
-      <c r="Q13" s="6" t="n">
+        <v>192</v>
+      </c>
+      <c r="Q13" s="7" t="n">
         <f aca="false">(O13+4*P13+N13)/6</f>
-        <v>46.6666666666667</v>
-      </c>
-      <c r="R13" s="6" t="n">
+        <v>186.666666666667</v>
+      </c>
+      <c r="R13" s="7" t="n">
         <f aca="false">(O13-N13)/6</f>
-        <v>1.33333333333333</v>
+        <v>5.33333333333333</v>
       </c>
       <c r="S13" s="0" t="n">
         <f aca="false">POWER(R13,2)</f>
-        <v>1.77777777777778</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="4" t="s">
+        <v>28.4444444444444</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="5" t="n">
-        <v>128</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>188</v>
-      </c>
-      <c r="I14" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="J14" s="6" t="n">
+      <c r="G14" s="6" t="n">
+        <v>512</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>752</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="J14" s="7" t="n">
         <f aca="false">(H14+4*I14+G14)/6</f>
-        <v>152.666666666667</v>
-      </c>
-      <c r="K14" s="6" t="n">
+        <v>610.666666666667</v>
+      </c>
+      <c r="K14" s="7" t="n">
         <f aca="false">(H14-G14)/6</f>
-        <v>10</v>
-      </c>
-      <c r="L14" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="L14" s="7" t="n">
         <f aca="false">POWER(K14,2)</f>
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="N14" s="0" t="n">
         <f aca="false">G14*4</f>
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="O14" s="0" t="n">
         <f aca="false">H14*4</f>
-        <v>752</v>
+        <v>3008</v>
       </c>
       <c r="P14" s="0" t="n">
         <f aca="false">I14*4</f>
-        <v>600</v>
-      </c>
-      <c r="Q14" s="6" t="n">
+        <v>2400</v>
+      </c>
+      <c r="Q14" s="7" t="n">
         <f aca="false">(O14+4*P14+N14)/6</f>
-        <v>610.666666666667</v>
-      </c>
-      <c r="R14" s="6" t="n">
+        <v>2442.66666666667</v>
+      </c>
+      <c r="R14" s="7" t="n">
         <f aca="false">(O14-N14)/6</f>
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="S14" s="0" t="n">
         <f aca="false">POWER(R14,2)</f>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="4" t="s">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="5" t="n">
-        <v>68</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>88</v>
-      </c>
-      <c r="I15" s="5" t="n">
-        <v>78</v>
-      </c>
-      <c r="J15" s="6" t="n">
+      <c r="G15" s="6" t="n">
+        <v>204</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>312</v>
+      </c>
+      <c r="J15" s="7" t="n">
         <f aca="false">(H15+4*I15+G15)/6</f>
-        <v>78</v>
-      </c>
-      <c r="K15" s="6" t="n">
+        <v>286</v>
+      </c>
+      <c r="K15" s="7" t="n">
         <f aca="false">(H15-G15)/6</f>
-        <v>3.33333333333333</v>
-      </c>
-      <c r="L15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L15" s="7" t="n">
         <f aca="false">POWER(K15,2)</f>
-        <v>11.1111111111111</v>
+        <v>100</v>
       </c>
       <c r="N15" s="0" t="n">
         <f aca="false">G15*3</f>
-        <v>204</v>
+        <v>612</v>
       </c>
       <c r="O15" s="0" t="n">
         <f aca="false">H15*3</f>
-        <v>264</v>
+        <v>792</v>
       </c>
       <c r="P15" s="0" t="n">
         <f aca="false">I15*4</f>
-        <v>312</v>
-      </c>
-      <c r="Q15" s="6" t="n">
+        <v>1248</v>
+      </c>
+      <c r="Q15" s="7" t="n">
         <f aca="false">(O15+4*P15+N15)/6</f>
-        <v>286</v>
-      </c>
-      <c r="R15" s="6" t="n">
+        <v>1066</v>
+      </c>
+      <c r="R15" s="7" t="n">
         <f aca="false">(O15-N15)/6</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S15" s="0" t="n">
         <f aca="false">POWER(R15,2)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="5" t="n">
-        <v>70</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>112</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J16" s="6" t="n">
+      <c r="G16" s="6" t="n">
+        <v>210</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>336</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>300</v>
+      </c>
+      <c r="J16" s="7" t="n">
         <f aca="false">(H16+4*I16+G16)/6</f>
-        <v>97</v>
-      </c>
-      <c r="K16" s="6" t="n">
+        <v>291</v>
+      </c>
+      <c r="K16" s="7" t="n">
         <f aca="false">(H16-G16)/6</f>
-        <v>7</v>
-      </c>
-      <c r="L16" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="L16" s="7" t="n">
         <f aca="false">POWER(K16,2)</f>
-        <v>49</v>
+        <v>441</v>
       </c>
       <c r="N16" s="0" t="n">
         <f aca="false">G16*3</f>
-        <v>210</v>
+        <v>630</v>
       </c>
       <c r="O16" s="0" t="n">
         <f aca="false">H16*3</f>
-        <v>336</v>
+        <v>1008</v>
       </c>
       <c r="P16" s="0" t="n">
         <f aca="false">I16*3</f>
-        <v>300</v>
-      </c>
-      <c r="Q16" s="6" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q16" s="7" t="n">
         <f aca="false">(O16+4*P16+N16)/6</f>
-        <v>291</v>
-      </c>
-      <c r="R16" s="6" t="n">
+        <v>873</v>
+      </c>
+      <c r="R16" s="7" t="n">
         <f aca="false">(O16-N16)/6</f>
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="S16" s="0" t="n">
         <f aca="false">POWER(R16,2)</f>
-        <v>441</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="4" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="I17" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" s="6" t="n">
+      <c r="G17" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="J17" s="7" t="n">
         <f aca="false">(H17+4*I17+G17)/6</f>
-        <v>12</v>
-      </c>
-      <c r="K17" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="K17" s="7" t="n">
         <f aca="false">(H17-G17)/6</f>
-        <v>1.33333333333333</v>
-      </c>
-      <c r="L17" s="0" t="n">
+        <v>5.33333333333333</v>
+      </c>
+      <c r="L17" s="7" t="n">
         <f aca="false">POWER(K17,2)</f>
-        <v>1.77777777777778</v>
+        <v>28.4444444444444</v>
       </c>
       <c r="N17" s="0" t="n">
         <f aca="false">G17*4</f>
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="O17" s="0" t="n">
         <f aca="false">H17*4</f>
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="P17" s="0" t="n">
         <f aca="false">I17*4</f>
-        <v>48</v>
-      </c>
-      <c r="Q17" s="6" t="n">
+        <v>192</v>
+      </c>
+      <c r="Q17" s="7" t="n">
         <f aca="false">(O17+4*P17+N17)/6</f>
-        <v>48</v>
-      </c>
-      <c r="R17" s="6" t="n">
+        <v>192</v>
+      </c>
+      <c r="R17" s="7" t="n">
         <f aca="false">(O17-N17)/6</f>
-        <v>5.33333333333333</v>
+        <v>21.3333333333333</v>
       </c>
       <c r="S17" s="0" t="n">
         <f aca="false">POWER(R17,2)</f>
-        <v>28.4444444444444</v>
+        <v>455.111111111111</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="0" t="n">
         <f aca="false">SUM(G2:G17)</f>
-        <v>510</v>
+        <v>1694</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">SUM(H2:H17)</f>
-        <v>740</v>
+        <v>2444</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">SUM(I2:I17)</f>
-        <v>646</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G19" s="0" t="n">
         <f aca="false">G18/8</f>
-        <v>63.75</v>
+        <v>211.75</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">H18/8</f>
-        <v>92.5</v>
+        <v>305.5</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">I18/8</f>
-        <v>80.75</v>
+        <v>275.5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I22" s="0" t="n">
         <f aca="false">I19/30</f>
-        <v>2.69166666666667</v>
+        <v>9.18333333333333</v>
       </c>
     </row>
   </sheetData>
